--- a/sofaplayer/Bundesliga/1. FSV Mainz 05_stats.xlsx
+++ b/sofaplayer/Bundesliga/1. FSV Mainz 05_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>537552</v>
       </c>
       <c r="E2" t="n">
-        <v>6.7210526315789</v>
+        <v>6.7</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>1589</v>
+        <v>1649</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>1.8866</v>
       </c>
       <c r="L2" t="n">
-        <v>794.5</v>
+        <v>824.5</v>
       </c>
       <c r="M2" t="n">
         <v>21</v>
@@ -1101,40 +1101,40 @@
         <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.46295538</v>
+        <v>2.60458138</v>
       </c>
       <c r="AB2" t="n">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="AF2" t="n">
-        <v>75.371549893843</v>
+        <v>76.31578947368401</v>
       </c>
       <c r="AG2" t="n">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="AH2" t="n">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AI2" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="AJ2" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>53.333333333333</v>
+        <v>53.125</v>
       </c>
       <c r="AM2" t="n">
         <v>4</v>
@@ -1143,19 +1143,19 @@
         <v>23.529411764706</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -1179,31 +1179,31 @@
         <v>30</v>
       </c>
       <c r="BA2" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="BB2" t="n">
-        <v>46.113989637306</v>
+        <v>46</v>
       </c>
       <c r="BC2" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="BD2" t="n">
-        <v>49.484536082474</v>
+        <v>50</v>
       </c>
       <c r="BE2" t="n">
         <v>41</v>
       </c>
       <c r="BF2" t="n">
-        <v>42.708333333333</v>
+        <v>41.836734693878</v>
       </c>
       <c r="BG2" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BH2" t="n">
         <v>15</v>
       </c>
       <c r="BI2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BJ2" t="n">
         <v>8</v>
@@ -1221,22 +1221,22 @@
         <v>1</v>
       </c>
       <c r="BO2" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>127.7</v>
+        <v>134</v>
       </c>
       <c r="BR2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS2" t="n">
         <v>4</v>
       </c>
       <c r="BT2" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1263,52 +1263,52 @@
         <v>17</v>
       </c>
       <c r="CC2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CD2" t="n">
+        <v>20</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>30</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="n">
         <v>19</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>27</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>18</v>
       </c>
       <c r="CS2" t="n">
         <v>10</v>
@@ -1317,10 +1317,10 @@
         <v>17</v>
       </c>
       <c r="CU2" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="CV2" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="DA2" t="n">
         <v>17</v>
       </c>
       <c r="DB2" t="n">
-        <v>60.714285714286</v>
+        <v>56.666666666667</v>
       </c>
       <c r="DC2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="DG2" t="n">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>6.4</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0238</v>
+        <v>0.1585</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0341407</v>
+        <v>0.04240542</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -1469,22 +1469,22 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>80</v>
+        <v>81.818181818182</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="BB3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BC3" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>50</v>
       </c>
       <c r="BG3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BH3" t="n">
         <v>2</v>
@@ -1577,22 +1577,22 @@
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>6.4</v>
+        <v>12.8</v>
       </c>
       <c r="BR3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS3" t="n">
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD3" t="n">
         <v>1</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK3" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="CU3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV3" t="n">
         <v>1</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>980621</v>
       </c>
       <c r="E4" t="n">
-        <v>6.3176470588235</v>
+        <v>6.3388888888889</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
         <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>1111</v>
+        <v>1141</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>2.4173</v>
       </c>
       <c r="L4" t="n">
-        <v>1111</v>
+        <v>1141</v>
       </c>
       <c r="M4" t="n">
         <v>14</v>
@@ -1813,34 +1813,34 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.90845101</v>
+        <v>1.92655951</v>
       </c>
       <c r="AB4" t="n">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="AC4" t="n">
         <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AF4" t="n">
-        <v>76.54867256637201</v>
+        <v>76.623376623377</v>
       </c>
       <c r="AG4" t="n">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="AH4" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AI4" t="n">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AJ4" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK4" t="n">
         <v>8</v>
@@ -1858,7 +1858,7 @@
         <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ4" t="n">
         <v>10</v>
@@ -1870,7 +1870,7 @@
         <v>10</v>
       </c>
       <c r="AT4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1888,34 +1888,34 @@
         <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>39.285714285714</v>
+        <v>37.931034482759</v>
       </c>
       <c r="BA4" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="BB4" t="n">
-        <v>34.615384615385</v>
+        <v>36.296296296296</v>
       </c>
       <c r="BC4" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BD4" t="n">
-        <v>42.268041237113</v>
+        <v>43.564356435644</v>
       </c>
       <c r="BE4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF4" t="n">
-        <v>12.121212121212</v>
+        <v>14.705882352941</v>
       </c>
       <c r="BG4" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="BH4" t="n">
         <v>16</v>
       </c>
       <c r="BI4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BJ4" t="n">
         <v>2</v>
@@ -1933,22 +1933,22 @@
         <v>1</v>
       </c>
       <c r="BO4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>107.4</v>
+        <v>114.1</v>
       </c>
       <c r="BR4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS4" t="n">
         <v>1</v>
       </c>
       <c r="BT4" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BU4" t="n">
         <v>2</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CK4" t="n">
         <v>1</v>
@@ -2020,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CS4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CT4" t="n">
         <v>78</v>
       </c>
       <c r="CU4" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CV4" t="n">
         <v>29</v>
@@ -2047,10 +2047,10 @@
         <v>18</v>
       </c>
       <c r="DA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DB4" t="n">
-        <v>57.142857142857</v>
+        <v>59.090909090909</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="DG4" t="n">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>1152505</v>
       </c>
       <c r="E5" t="n">
-        <v>6.375</v>
+        <v>6.4384615384615</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2121,19 +2121,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.1921</v>
+        <v>2.0442</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -2169,34 +2169,34 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.25427611</v>
+        <v>0.27513491</v>
       </c>
       <c r="AB5" t="n">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="n">
-        <v>63.809523809524</v>
+        <v>64.28571428571399</v>
       </c>
       <c r="AG5" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
         <v>4</v>
@@ -2214,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
         <v>2</v>
@@ -2244,28 +2244,28 @@
         <v>3</v>
       </c>
       <c r="AZ5" t="n">
-        <v>33.333333333333</v>
+        <v>30</v>
       </c>
       <c r="BA5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BB5" t="n">
-        <v>34.782608695652</v>
+        <v>35.416666666667</v>
       </c>
       <c r="BC5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD5" t="n">
-        <v>20.689655172414</v>
+        <v>22.58064516129</v>
       </c>
       <c r="BE5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BF5" t="n">
-        <v>41.269841269841</v>
+        <v>41.538461538462</v>
       </c>
       <c r="BG5" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BH5" t="n">
         <v>5</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>76.5</v>
+        <v>83.7</v>
       </c>
       <c r="BR5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CA5" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK5" t="n">
         <v>1</v>
@@ -2376,19 +2376,19 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CS5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CT5" t="n">
         <v>4</v>
       </c>
       <c r="CU5" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="CV5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>4</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="DG5" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ5" t="n">
         <v>2168764</v>
@@ -3171,16 +3171,16 @@
         <v>822340</v>
       </c>
       <c r="E8" t="n">
-        <v>6.3666666666667</v>
+        <v>6.38125</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>714</v>
+        <v>787</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>3.2336</v>
       </c>
       <c r="L8" t="n">
-        <v>357</v>
+        <v>393.5</v>
       </c>
       <c r="M8" t="n">
         <v>22</v>
@@ -3237,10 +3237,10 @@
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.11349685</v>
+        <v>1.13332285</v>
       </c>
       <c r="AB8" t="n">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="AC8" t="n">
         <v>1</v>
@@ -3249,22 +3249,22 @@
         <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="AF8" t="n">
-        <v>56.756756756757</v>
+        <v>57.740585774059</v>
       </c>
       <c r="AG8" t="n">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AH8" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AI8" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AJ8" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
@@ -3288,13 +3288,13 @@
         <v>6</v>
       </c>
       <c r="AR8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>2</v>
@@ -3315,34 +3315,34 @@
         <v>33.333333333333</v>
       </c>
       <c r="BA8" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BB8" t="n">
-        <v>38.926174496644</v>
+        <v>39.74358974359</v>
       </c>
       <c r="BC8" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>30.15873015873</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>43</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>46.236559139785</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>166</v>
+      </c>
+      <c r="BH8" t="n">
         <v>18</v>
       </c>
-      <c r="BD8" t="n">
-        <v>30</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>40</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>44.943820224719</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>158</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>17</v>
-      </c>
       <c r="BI8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BJ8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK8" t="n">
         <v>3</v>
@@ -3357,22 +3357,22 @@
         <v>1</v>
       </c>
       <c r="BO8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>95.5</v>
+        <v>102.1</v>
       </c>
       <c r="BR8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS8" t="n">
         <v>4</v>
       </c>
       <c r="BT8" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>3</v>
       </c>
       <c r="CB8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CC8" t="n">
         <v>14</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="CK8" t="n">
         <v>1</v>
@@ -3453,10 +3453,10 @@
         <v>1</v>
       </c>
       <c r="CU8" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="CV8" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="DG8" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>949062</v>
       </c>
       <c r="E10" t="n">
-        <v>6.875</v>
+        <v>6.82</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -3901,13 +3901,13 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.4731</v>
+        <v>1.6681</v>
       </c>
       <c r="L10" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" t="n">
         <v>6</v>
@@ -3916,7 +3916,7 @@
         <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>16.666666666667</v>
+        <v>14.285714285714</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.12908225</v>
+        <v>0.1339157</v>
       </c>
       <c r="AB10" t="n">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -3961,22 +3961,22 @@
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AF10" t="n">
-        <v>69.444444444444</v>
+        <v>73.80952380952399</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
@@ -3997,10 +3997,10 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS10" t="n">
         <v>2</v>
@@ -4024,37 +4024,37 @@
         <v>6</v>
       </c>
       <c r="AZ10" t="n">
-        <v>60</v>
+        <v>54.545454545455</v>
       </c>
       <c r="BA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="BC10" t="n">
         <v>12</v>
       </c>
-      <c r="BB10" t="n">
-        <v>35.294117647059</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>10</v>
-      </c>
       <c r="BD10" t="n">
-        <v>41.666666666667</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BE10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF10" t="n">
-        <v>20</v>
+        <v>23.076923076923</v>
       </c>
       <c r="BG10" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="BH10" t="n">
         <v>1</v>
       </c>
       <c r="BI10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK10" t="n">
         <v>0</v>
@@ -4069,16 +4069,16 @@
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>27.5</v>
+        <v>34.1</v>
       </c>
       <c r="BR10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS10" t="n">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="CA10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CB10" t="n">
         <v>7</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CK10" t="n">
         <v>0</v>
@@ -4159,17 +4159,17 @@
         <v>1</v>
       </c>
       <c r="CS10" t="n">
+        <v>11</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>9</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>25</v>
+      </c>
+      <c r="CV10" t="n">
         <v>10</v>
       </c>
-      <c r="CT10" t="n">
-        <v>7</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>22</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>8</v>
-      </c>
       <c r="CW10" t="n">
         <v>0</v>
       </c>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DG10" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>327755</v>
       </c>
       <c r="E11" t="n">
-        <v>7.4611111111111</v>
+        <v>7.4105263157895</v>
       </c>
       <c r="F11" t="n">
+        <v>19</v>
+      </c>
+      <c r="G11" t="n">
         <v>18</v>
       </c>
-      <c r="G11" t="n">
-        <v>17</v>
-      </c>
       <c r="H11" t="n">
-        <v>1471</v>
+        <v>1561</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
@@ -4257,22 +4257,22 @@
         <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>6.8054</v>
+        <v>6.8786</v>
       </c>
       <c r="L11" t="n">
-        <v>163.44444444444</v>
+        <v>173.44444444444</v>
       </c>
       <c r="M11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>26.470588235294</v>
+        <v>25</v>
       </c>
       <c r="Q11" t="n">
         <v>7</v>
@@ -4305,67 +4305,67 @@
         <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>4.7844905</v>
+        <v>5.0128205</v>
       </c>
       <c r="AB11" t="n">
-        <v>1181</v>
+        <v>1252</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AE11" t="n">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="AF11" t="n">
-        <v>80.172413793103</v>
+        <v>80.510440835267</v>
       </c>
       <c r="AG11" t="n">
-        <v>812</v>
+        <v>862</v>
       </c>
       <c r="AH11" t="n">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="AI11" t="n">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="AJ11" t="n">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="AK11" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>48.543689320388</v>
+        <v>47.222222222222</v>
       </c>
       <c r="AM11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>29.787234042553</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
         <v>26</v>
       </c>
-      <c r="AN11" t="n">
-        <v>28.888888888889</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>25</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR11" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AS11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT11" t="n">
         <v>8</v>
       </c>
       <c r="AU11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -4377,22 +4377,22 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ11" t="n">
-        <v>48.571428571429</v>
+        <v>48.648648648649</v>
       </c>
       <c r="BA11" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="BB11" t="n">
-        <v>47.972972972973</v>
+        <v>48.366013071895</v>
       </c>
       <c r="BC11" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BD11" t="n">
-        <v>47.244094488189</v>
+        <v>47.727272727273</v>
       </c>
       <c r="BE11" t="n">
         <v>11</v>
@@ -4401,13 +4401,13 @@
         <v>52.380952380952</v>
       </c>
       <c r="BG11" t="n">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="BH11" t="n">
         <v>17</v>
       </c>
       <c r="BI11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BJ11" t="n">
         <v>2</v>
@@ -4425,22 +4425,22 @@
         <v>1</v>
       </c>
       <c r="BO11" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>134.3</v>
+        <v>140.8</v>
       </c>
       <c r="BR11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS11" t="n">
         <v>11</v>
       </c>
       <c r="BT11" t="n">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4461,16 +4461,16 @@
         <v>16</v>
       </c>
       <c r="CA11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CB11" t="n">
         <v>23</v>
       </c>
       <c r="CC11" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="CD11" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="CK11" t="n">
         <v>2</v>
@@ -4512,16 +4512,16 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CS11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="CT11" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="CU11" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CV11" t="n">
         <v>10</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="DA11" t="n">
         <v>15</v>
       </c>
       <c r="DB11" t="n">
-        <v>60</v>
+        <v>57.692307692308</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="DG11" t="n">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>1028307</v>
       </c>
       <c r="E12" t="n">
-        <v>7.0714285714286</v>
+        <v>7.0409090909091</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" t="n">
-        <v>1889</v>
+        <v>1979</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -4616,7 +4616,7 @@
         <v>0.8938</v>
       </c>
       <c r="L12" t="n">
-        <v>1889</v>
+        <v>1979</v>
       </c>
       <c r="M12" t="n">
         <v>13</v>
@@ -4661,58 +4661,58 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.61856822</v>
+        <v>1.79401122</v>
       </c>
       <c r="AB12" t="n">
-        <v>1113</v>
+        <v>1174</v>
       </c>
       <c r="AC12" t="n">
         <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>617</v>
+        <v>652</v>
       </c>
       <c r="AF12" t="n">
-        <v>78.398983481576</v>
+        <v>78.271308523409</v>
       </c>
       <c r="AG12" t="n">
-        <v>787</v>
+        <v>833</v>
       </c>
       <c r="AH12" t="n">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="AI12" t="n">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="AJ12" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AK12" t="n">
         <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>41.463414634146</v>
+        <v>39.53488372093</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AP12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AS12" t="n">
         <v>12</v>
@@ -4739,16 +4739,16 @@
         <v>70.37037037037</v>
       </c>
       <c r="BA12" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="BB12" t="n">
-        <v>64.321608040201</v>
+        <v>64.532019704433</v>
       </c>
       <c r="BC12" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="BD12" t="n">
-        <v>62.385321100917</v>
+        <v>62.83185840708</v>
       </c>
       <c r="BE12" t="n">
         <v>60</v>
@@ -4757,13 +4757,13 @@
         <v>66.666666666667</v>
       </c>
       <c r="BG12" t="n">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="BH12" t="n">
         <v>7</v>
       </c>
       <c r="BI12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BJ12" t="n">
         <v>4</v>
@@ -4781,22 +4781,22 @@
         <v>2</v>
       </c>
       <c r="BO12" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>148.5</v>
+        <v>154.9</v>
       </c>
       <c r="BR12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS12" t="n">
         <v>2</v>
       </c>
       <c r="BT12" t="n">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>8</v>
       </c>
       <c r="CB12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CC12" t="n">
         <v>39</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="CK12" t="n">
         <v>2</v>
@@ -4868,16 +4868,16 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CS12" t="n">
         <v>27</v>
       </c>
       <c r="CT12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CU12" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="CV12" t="n">
         <v>30</v>
@@ -4892,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="DA12" t="n">
         <v>24</v>
       </c>
       <c r="DB12" t="n">
-        <v>75</v>
+        <v>70.58823529411799</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="DG12" t="n">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -5307,16 +5307,16 @@
         <v>157377</v>
       </c>
       <c r="E14" t="n">
-        <v>6.8375</v>
+        <v>6.8058823529412</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>1109</v>
+        <v>1170</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -5328,7 +5328,7 @@
         <v>2.2583</v>
       </c>
       <c r="L14" t="n">
-        <v>554.5</v>
+        <v>585</v>
       </c>
       <c r="M14" t="n">
         <v>17</v>
@@ -5373,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.92241285</v>
+        <v>0.92883032</v>
       </c>
       <c r="AB14" t="n">
-        <v>655</v>
+        <v>696</v>
       </c>
       <c r="AC14" t="n">
         <v>2</v>
@@ -5385,28 +5385,28 @@
         <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="AF14" t="n">
-        <v>70.53571428571399</v>
+        <v>71.117166212534</v>
       </c>
       <c r="AG14" t="n">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="AH14" t="n">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AI14" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AJ14" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>43.75</v>
+        <v>45.714285714286</v>
       </c>
       <c r="AM14" t="n">
         <v>2</v>
@@ -5424,13 +5424,13 @@
         <v>3</v>
       </c>
       <c r="AR14" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AS14" t="n">
         <v>6</v>
       </c>
       <c r="AT14" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
@@ -5451,37 +5451,37 @@
         <v>33.333333333333</v>
       </c>
       <c r="BA14" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BB14" t="n">
-        <v>55.445544554455</v>
+        <v>55.238095238095</v>
       </c>
       <c r="BC14" t="n">
         <v>36</v>
       </c>
       <c r="BD14" t="n">
-        <v>61.016949152542</v>
+        <v>59.016393442623</v>
       </c>
       <c r="BE14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BF14" t="n">
-        <v>47.619047619048</v>
+        <v>50</v>
       </c>
       <c r="BG14" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="BH14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI14" t="n">
         <v>7</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
@@ -5493,22 +5493,22 @@
         <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>109.4</v>
+        <v>115.7</v>
       </c>
       <c r="BR14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS14" t="n">
         <v>2</v>
       </c>
       <c r="BT14" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5535,10 +5535,10 @@
         <v>3</v>
       </c>
       <c r="CC14" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CD14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CK14" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         <v>17</v>
       </c>
       <c r="CU14" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="CV14" t="n">
         <v>22</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="DA14" t="n">
         <v>21</v>
@@ -5622,16 +5622,16 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="DG14" t="n">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DJ14" t="n">
         <v>2168730</v>
@@ -5663,16 +5663,16 @@
         <v>138126</v>
       </c>
       <c r="E15" t="n">
-        <v>6.65</v>
+        <v>6.6411764705882</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
         <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>1084</v>
+        <v>1113</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.36527639</v>
+        <v>1.40866209</v>
       </c>
       <c r="AB15" t="n">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="AC15" t="n">
         <v>1</v>
@@ -5741,28 +5741,28 @@
         <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AF15" t="n">
-        <v>73.07692307692299</v>
+        <v>72.670807453416</v>
       </c>
       <c r="AG15" t="n">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AH15" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AJ15" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AK15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>39.393939393939</v>
+        <v>41.666666666667</v>
       </c>
       <c r="AM15" t="n">
         <v>14</v>
@@ -5774,19 +5774,19 @@
         <v>5</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5807,16 +5807,16 @@
         <v>54.545454545455</v>
       </c>
       <c r="BA15" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BB15" t="n">
-        <v>40.425531914894</v>
+        <v>41.414141414141</v>
       </c>
       <c r="BC15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BD15" t="n">
-        <v>43.243243243243</v>
+        <v>44.303797468354</v>
       </c>
       <c r="BE15" t="n">
         <v>6</v>
@@ -5825,16 +5825,16 @@
         <v>30</v>
       </c>
       <c r="BG15" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="BH15" t="n">
         <v>15</v>
       </c>
       <c r="BI15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BJ15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK15" t="n">
         <v>3</v>
@@ -5849,22 +5849,22 @@
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>106.4</v>
+        <v>112.9</v>
       </c>
       <c r="BR15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5888,13 +5888,13 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CC15" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CD15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CK15" t="n">
         <v>2</v>
@@ -5945,7 +5945,7 @@
         <v>46</v>
       </c>
       <c r="CU15" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CV15" t="n">
         <v>14</v>
@@ -5960,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="DA15" t="n">
         <v>7</v>
       </c>
       <c r="DB15" t="n">
-        <v>77.777777777778</v>
+        <v>63.636363636364</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DG15" t="n">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -7087,16 +7087,16 @@
         <v>355486</v>
       </c>
       <c r="E19" t="n">
-        <v>7.1333333333333</v>
+        <v>6.775</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7104,15 +7104,17 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0.0273</v>
+      </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -7151,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2430227</v>
+        <v>0.2828779</v>
       </c>
       <c r="AB19" t="n">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7163,58 +7165,58 @@
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AF19" t="n">
-        <v>79.527559055118</v>
+        <v>80.924855491329</v>
       </c>
       <c r="AG19" t="n">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="AH19" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AJ19" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AK19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM19" t="n">
         <v>4</v>
       </c>
-      <c r="AL19" t="n">
-        <v>22.222222222222</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>3</v>
-      </c>
       <c r="AN19" t="n">
-        <v>42.857142857143</v>
+        <v>50</v>
       </c>
       <c r="AO19" t="n">
         <v>6</v>
       </c>
       <c r="AP19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT19" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
@@ -7226,28 +7228,28 @@
         <v>3</v>
       </c>
       <c r="AZ19" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BA19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB19" t="n">
-        <v>60</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BC19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD19" t="n">
-        <v>60.869565217391</v>
+        <v>57.692307692308</v>
       </c>
       <c r="BE19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF19" t="n">
-        <v>57.142857142857</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BG19" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="BH19" t="n">
         <v>4</v>
@@ -7259,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="BK19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL19" t="n">
         <v>0</v>
@@ -7271,22 +7273,22 @@
         <v>1</v>
       </c>
       <c r="BO19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>21.4</v>
+        <v>27.1</v>
       </c>
       <c r="BR19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7304,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA19" t="n">
         <v>0</v>
@@ -7313,10 +7315,10 @@
         <v>2</v>
       </c>
       <c r="CC19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="CD19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7334,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CK19" t="n">
         <v>0</v>
@@ -7361,17 +7363,17 @@
         <v>1</v>
       </c>
       <c r="CS19" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>8</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>15</v>
+      </c>
+      <c r="CV19" t="n">
         <v>4</v>
       </c>
-      <c r="CT19" t="n">
-        <v>7</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>12</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>3</v>
-      </c>
       <c r="CW19" t="n">
         <v>0</v>
       </c>
@@ -7382,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="DA19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB19" t="n">
-        <v>40</v>
+        <v>45.454545454545</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7400,16 +7402,16 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="DG19" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
       </c>
       <c r="DI19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ19" t="n">
         <v>2607720</v>
@@ -7441,16 +7443,16 @@
         <v>1548910</v>
       </c>
       <c r="E20" t="n">
-        <v>6.8142857142857</v>
+        <v>6.775</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7459,13 +7461,13 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7612</v>
+        <v>0.9893</v>
       </c>
       <c r="L20" t="n">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
@@ -7474,7 +7476,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>25</v>
+        <v>14.285714285714</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -7507,40 +7509,40 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.07181558</v>
+        <v>0.0756255</v>
       </c>
       <c r="AB20" t="n">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="AF20" t="n">
-        <v>79.62962962963</v>
+        <v>78.504672897196</v>
       </c>
       <c r="AG20" t="n">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="AH20" t="n">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="AI20" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL20" t="n">
-        <v>31.578947368421</v>
+        <v>26.923076923077</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7552,22 +7554,22 @@
         <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AS20" t="n">
         <v>3</v>
       </c>
       <c r="AT20" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AU20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV20" t="n">
         <v>0</v>
@@ -7585,25 +7587,25 @@
         <v>0</v>
       </c>
       <c r="BA20" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="BB20" t="n">
-        <v>52.173913043478</v>
+        <v>56.896551724138</v>
       </c>
       <c r="BC20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="n">
-        <v>35.714285714286</v>
+        <v>47.058823529412</v>
       </c>
       <c r="BE20" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BF20" t="n">
-        <v>59.375</v>
+        <v>60.975609756098</v>
       </c>
       <c r="BG20" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="BH20" t="n">
         <v>5</v>
@@ -7627,41 +7629,41 @@
         <v>1</v>
       </c>
       <c r="BO20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>47.7</v>
+        <v>54.2</v>
       </c>
       <c r="BR20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>46</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
         <v>7</v>
       </c>
-      <c r="BS20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>33</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>4</v>
-      </c>
       <c r="CA20" t="n">
         <v>0</v>
       </c>
@@ -7669,10 +7671,10 @@
         <v>1</v>
       </c>
       <c r="CC20" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="CD20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7690,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CK20" t="n">
         <v>0</v>
@@ -7714,19 +7716,19 @@
         <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CS20" t="n">
         <v>0</v>
       </c>
       <c r="CT20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="CV20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7738,10 +7740,10 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="DA20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DB20" t="n">
         <v>100</v>
@@ -7756,13 +7758,13 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="DG20" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="DH20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DI20" t="n">
         <v>11</v>
@@ -8153,16 +8155,16 @@
         <v>152206</v>
       </c>
       <c r="E22" t="n">
-        <v>6.875</v>
+        <v>6.8058823529412</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" t="n">
-        <v>1340</v>
+        <v>1430</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8174,7 +8176,7 @@
         <v>0.9977</v>
       </c>
       <c r="L22" t="n">
-        <v>1340</v>
+        <v>1430</v>
       </c>
       <c r="M22" t="n">
         <v>9</v>
@@ -8219,10 +8221,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.68238287</v>
+        <v>1.69607707</v>
       </c>
       <c r="AB22" t="n">
-        <v>875</v>
+        <v>955</v>
       </c>
       <c r="AC22" t="n">
         <v>2</v>
@@ -8231,28 +8233,28 @@
         <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>526</v>
+        <v>581</v>
       </c>
       <c r="AF22" t="n">
-        <v>82.965299684543</v>
+        <v>83.47701149425301</v>
       </c>
       <c r="AG22" t="n">
-        <v>634</v>
+        <v>696</v>
       </c>
       <c r="AH22" t="n">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="AI22" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="AJ22" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AK22" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AL22" t="n">
-        <v>54.807692307692</v>
+        <v>55.140186915888</v>
       </c>
       <c r="AM22" t="n">
         <v>2</v>
@@ -8261,22 +8263,22 @@
         <v>20</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AS22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AT22" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AU22" t="n">
         <v>3</v>
@@ -8297,28 +8299,28 @@
         <v>57.142857142857</v>
       </c>
       <c r="BA22" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BB22" t="n">
-        <v>59.440559440559</v>
+        <v>57.236842105263</v>
       </c>
       <c r="BC22" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BD22" t="n">
-        <v>61.538461538462</v>
+        <v>59.79381443299</v>
       </c>
       <c r="BE22" t="n">
         <v>29</v>
       </c>
       <c r="BF22" t="n">
-        <v>55.769230769231</v>
+        <v>52.727272727273</v>
       </c>
       <c r="BG22" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="BH22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI22" t="n">
         <v>28</v>
@@ -8339,22 +8341,22 @@
         <v>1</v>
       </c>
       <c r="BO22" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>110</v>
+        <v>115.7</v>
       </c>
       <c r="BR22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS22" t="n">
         <v>1</v>
       </c>
       <c r="BT22" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="BU22" t="n">
         <v>1</v>
@@ -8381,10 +8383,10 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="CD22" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -8402,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="CK22" t="n">
         <v>2</v>
@@ -8435,10 +8437,10 @@
         <v>10</v>
       </c>
       <c r="CU22" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="CV22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="DA22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="DB22" t="n">
-        <v>65.384615384615</v>
+        <v>67.857142857143</v>
       </c>
       <c r="DC22" t="n">
         <v>1</v>
@@ -8468,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="DG22" t="n">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="DH22" t="n">
         <v>5</v>
@@ -8509,16 +8511,16 @@
         <v>97926</v>
       </c>
       <c r="E23" t="n">
-        <v>6.8142857142857</v>
+        <v>6.7772727272727</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" t="n">
-        <v>1743</v>
+        <v>1833</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -8530,7 +8532,7 @@
         <v>0.7271</v>
       </c>
       <c r="L23" t="n">
-        <v>1743</v>
+        <v>1833</v>
       </c>
       <c r="M23" t="n">
         <v>8</v>
@@ -8575,10 +8577,10 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.84869609</v>
+        <v>1.8549852</v>
       </c>
       <c r="AB23" t="n">
-        <v>1167</v>
+        <v>1218</v>
       </c>
       <c r="AC23" t="n">
         <v>3</v>
@@ -8587,52 +8589,52 @@
         <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="AF23" t="n">
-        <v>75.13297872340399</v>
+        <v>74.582798459564</v>
       </c>
       <c r="AG23" t="n">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="AH23" t="n">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AI23" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AJ23" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK23" t="n">
         <v>55</v>
       </c>
       <c r="AL23" t="n">
-        <v>34.591194968553</v>
+        <v>33.950617283951</v>
       </c>
       <c r="AM23" t="n">
         <v>13</v>
       </c>
       <c r="AN23" t="n">
-        <v>38.235294117647</v>
+        <v>36.111111111111</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
         <v>3</v>
       </c>
       <c r="AR23" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT23" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
@@ -8653,31 +8655,31 @@
         <v>61.538461538462</v>
       </c>
       <c r="BA23" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BB23" t="n">
-        <v>55.27950310559</v>
+        <v>54.819277108434</v>
       </c>
       <c r="BC23" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BD23" t="n">
-        <v>54.838709677419</v>
+        <v>55.208333333333</v>
       </c>
       <c r="BE23" t="n">
         <v>38</v>
       </c>
       <c r="BF23" t="n">
-        <v>55.882352941176</v>
+        <v>54.285714285714</v>
       </c>
       <c r="BG23" t="n">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="BH23" t="n">
         <v>19</v>
       </c>
       <c r="BI23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BJ23" t="n">
         <v>1</v>
@@ -8695,22 +8697,22 @@
         <v>2</v>
       </c>
       <c r="BO23" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>143.1</v>
+        <v>149.1</v>
       </c>
       <c r="BR23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS23" t="n">
         <v>2</v>
       </c>
       <c r="BT23" t="n">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8737,10 +8739,10 @@
         <v>7</v>
       </c>
       <c r="CC23" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="CD23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CE23" t="n">
         <v>1</v>
@@ -8758,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="CK23" t="n">
         <v>2</v>
@@ -8788,13 +8790,13 @@
         <v>13</v>
       </c>
       <c r="CT23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="CU23" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="CV23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CW23" t="n">
         <v>0</v>
@@ -8806,13 +8808,13 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="DA23" t="n">
         <v>15</v>
       </c>
       <c r="DB23" t="n">
-        <v>53.571428571429</v>
+        <v>51.724137931034</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -8824,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="DG23" t="n">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="DH23" t="n">
         <v>0</v>
@@ -9221,16 +9223,16 @@
         <v>106662</v>
       </c>
       <c r="E25" t="n">
-        <v>6.7117647058824</v>
+        <v>6.6777777777778</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="n">
-        <v>1022</v>
+        <v>1049</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -9242,7 +9244,7 @@
         <v>1.7317</v>
       </c>
       <c r="L25" t="n">
-        <v>511</v>
+        <v>524.5</v>
       </c>
       <c r="M25" t="n">
         <v>12</v>
@@ -9287,10 +9289,10 @@
         <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.62529384</v>
+        <v>0.62857991</v>
       </c>
       <c r="AB25" t="n">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="AC25" t="n">
         <v>3</v>
@@ -9299,28 +9301,28 @@
         <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AF25" t="n">
-        <v>70.171149144254</v>
+        <v>70.263788968825</v>
       </c>
       <c r="AG25" t="n">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="AH25" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AI25" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK25" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
-        <v>34.375</v>
+        <v>34.343434343434</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -9338,13 +9340,13 @@
         <v>1</v>
       </c>
       <c r="AR25" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AS25" t="n">
         <v>4</v>
       </c>
       <c r="AT25" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AU25" t="n">
         <v>1</v>
@@ -9365,28 +9367,28 @@
         <v>50</v>
       </c>
       <c r="BA25" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BB25" t="n">
-        <v>56.834532374101</v>
+        <v>56.737588652482</v>
       </c>
       <c r="BC25" t="n">
         <v>19</v>
       </c>
       <c r="BD25" t="n">
-        <v>51.351351351351</v>
+        <v>50</v>
       </c>
       <c r="BE25" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BF25" t="n">
-        <v>58.823529411765</v>
+        <v>59.223300970874</v>
       </c>
       <c r="BG25" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BH25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI25" t="n">
         <v>7</v>
@@ -9407,22 +9409,22 @@
         <v>1</v>
       </c>
       <c r="BO25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BP25" t="n">
         <v>0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>114.1</v>
+        <v>120.2</v>
       </c>
       <c r="BR25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS25" t="n">
         <v>3</v>
       </c>
       <c r="BT25" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BU25" t="n">
         <v>0</v>
@@ -9449,10 +9451,10 @@
         <v>2</v>
       </c>
       <c r="CC25" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="CD25" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE25" t="n">
         <v>0</v>
@@ -9470,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="CJ25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CK25" t="n">
         <v>1</v>
@@ -9503,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="CU25" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CV25" t="n">
         <v>42</v>
@@ -9518,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="CZ25" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="DA25" t="n">
         <v>6</v>
@@ -9536,10 +9538,10 @@
         <v>0</v>
       </c>
       <c r="DF25" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="DG25" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="DH25" t="n">
         <v>6</v>
@@ -10289,16 +10291,16 @@
         <v>94312</v>
       </c>
       <c r="E28" t="n">
-        <v>7.4222222222222</v>
+        <v>7.35</v>
       </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -10353,10 +10355,10 @@
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.02274433</v>
+        <v>0.02664334</v>
       </c>
       <c r="AB28" t="n">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -10365,130 +10367,130 @@
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="AF28" t="n">
-        <v>60.37037037037</v>
+        <v>63.12292358804</v>
       </c>
       <c r="AG28" t="n">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="AH28" t="n">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="AI28" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AJ28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>69</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>38.76404494382</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>85</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>75</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>75</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>114</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>37</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO28" t="n">
         <v>14</v>
       </c>
-      <c r="AK28" t="n">
-        <v>64</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>37.869822485207</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>100</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>110</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM28" t="n">
-        <v>33</v>
-      </c>
-      <c r="BN28" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO28" t="n">
+      <c r="BP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="BR28" t="n">
         <v>10</v>
       </c>
-      <c r="BP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ28" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="BR28" t="n">
-        <v>9</v>
-      </c>
       <c r="BS28" t="n">
         <v>0</v>
       </c>
       <c r="BT28" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="BU28" t="n">
         <v>0</v>
@@ -10515,10 +10517,10 @@
         <v>0</v>
       </c>
       <c r="CC28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CD28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE28" t="n">
         <v>0</v>
@@ -10530,19 +10532,19 @@
         <v>1</v>
       </c>
       <c r="CH28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CI28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CJ28" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="CK28" t="n">
         <v>0</v>
       </c>
       <c r="CL28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CM28" t="n">
         <v>4</v>
@@ -10569,10 +10571,10 @@
         <v>0</v>
       </c>
       <c r="CU28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW28" t="n">
         <v>0</v>
@@ -10584,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="CZ28" t="n">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="DA28" t="n">
         <v>0</v>
@@ -10599,16 +10601,16 @@
         <v>0</v>
       </c>
       <c r="DE28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DF28" t="n">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="DG28" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="DH28" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="DI28" t="n">
         <v>0</v>
@@ -10622,7 +10624,7 @@
         </is>
       </c>
       <c r="DL28" t="n">
-        <v>4.8545</v>
+        <v>5.2925</v>
       </c>
     </row>
     <row r="29">
